--- a/テスト/単体テスト_やすむ.xlsx
+++ b/テスト/単体テスト_やすむ.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kishimoto keisuke\OneDrive\ドキュメント\AxiZ\仕様書\40_単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git練習\テスト\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89EB66D-8C72-4899-88BA-5E076E459B48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7776"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="やすむ" sheetId="2" r:id="rId1"/>
@@ -23,10 +24,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">やすむ!$C$3:$H$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">やすむ!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -270,7 +279,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="m/d;@"/>
@@ -666,11 +675,11 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +758,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -787,7 +802,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -847,7 +868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -907,7 +934,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -982,7 +1015,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5"/>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1046,7 +1085,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1084,7 +1129,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1131,7 +1182,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1200,7 +1257,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1238,7 +1301,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1276,7 +1345,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直線矢印コネクタ 2"/>
+        <xdr:cNvPr id="3" name="直線矢印コネクタ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1323,7 +1398,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1392,7 +1473,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1430,7 +1517,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1490,7 +1583,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1565,7 +1664,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1603,7 +1708,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1663,7 +1774,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6"/>
+        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1727,7 +1844,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1774,7 +1897,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9"/>
+        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1828,44 +1957,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>18301</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>601709</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="627901" y="175261"/>
-          <a:ext cx="9727408" cy="4716780"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -1881,7 +1972,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1941,7 +2038,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2016,13 +2119,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2054,7 +2163,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2114,7 +2229,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6"/>
+        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2178,7 +2299,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2225,7 +2352,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2289,7 +2422,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2354,7 +2493,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2392,7 +2537,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2430,7 +2581,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="直線矢印コネクタ 3"/>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2477,7 +2634,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2552,7 +2715,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2590,7 +2759,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2637,7 +2812,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2697,7 +2878,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2757,7 +2944,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2817,7 +3010,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2877,7 +3076,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2937,7 +3142,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2997,7 +3208,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3057,7 +3274,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="角丸四角形吹き出し 15"/>
+        <xdr:cNvPr id="16" name="角丸四角形吹き出し 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3423,39 +3646,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.88671875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="1.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.75" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+    <row r="1" spans="2:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
         <v>13</v>
       </c>
@@ -3481,8 +3704,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.2">
-      <c r="B4" s="26" t="s">
+    <row r="4" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3507,8 +3730,8 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.2">
-      <c r="B5" s="26"/>
+    <row r="5" spans="2:9" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="B5" s="27"/>
       <c r="C5" s="14">
         <v>1.2</v>
       </c>
@@ -3531,8 +3754,8 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="26"/>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="27"/>
       <c r="C6" s="14">
         <v>1.3</v>
       </c>
@@ -3555,7 +3778,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B7" s="23" t="s">
         <v>21</v>
       </c>
@@ -3581,7 +3804,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="45.6" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="48" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="21" t="s">
         <v>25</v>
       </c>
@@ -3607,16 +3830,16 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G9" s="9"/>
       <c r="H9" s="10"/>
     </row>
-    <row r="10" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G11" s="3" t="s">
         <v>7</v>
       </c>
@@ -3625,7 +3848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
@@ -3634,7 +3857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="G13" s="5" t="s">
         <v>9</v>
       </c>
@@ -3643,7 +3866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="G14" s="7" t="s">
         <v>0</v>
       </c>
@@ -3682,7 +3905,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G4:G9" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"○,×"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3698,12 +3921,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3712,12 +3935,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3726,12 +3949,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3740,12 +3963,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3754,12 +3977,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
